--- a/state-chart/m8/Tools/ExcelStateChartConverter/test/doc/ball_state_table.xlsx
+++ b/state-chart/m8/Tools/ExcelStateChartConverter/test/doc/ball_state_table.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
     <sheet name="template-statefunc" sheetId="2" r:id="rId2"/>
     <sheet name="template-source" sheetId="3" r:id="rId3"/>
-    <sheet name="#ＤＩＲ内の移動について" sheetId="4" r:id="rId4"/>
+    <sheet name="xxtemplate-source-c" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="#ＤＩＲ内の移動について" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
   <si>
     <t>state</t>
     <phoneticPr fontId="1"/>
@@ -752,12 +754,31 @@
 br_if_wall_block_obs_from_dir(S_VANISH);</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">:output=BallStateControl_created.vba
+:lang=vba
+::
+'
+Sub BallStateSelect(func As String, bFirst As Boolean)
+    Select Case func
+        $contents3$
+    EndSelect
+EndSub
+'
+$contents2$
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,14 +794,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
@@ -795,12 +834,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -843,37 +880,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1285,13 +1319,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R17"/>
+  <dimension ref="B2:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" thickTop="1" thickBottom="1"/>
@@ -1304,8 +1338,8 @@
     <col min="6" max="6" width="24.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.125" style="2" customWidth="1"/>
     <col min="8" max="9" width="21.375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="24" style="7" customWidth="1"/>
-    <col min="12" max="12" width="20.75" style="7" customWidth="1"/>
+    <col min="10" max="11" width="24" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.75" style="3" customWidth="1"/>
     <col min="13" max="14" width="15.75" style="2" customWidth="1"/>
     <col min="15" max="15" width="14.875" style="2" customWidth="1"/>
     <col min="16" max="16" width="14.125" style="2" customWidth="1"/>
@@ -1314,483 +1348,483 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" thickTop="1" thickBot="1">
-      <c r="B1" s="2" t="s">
+    <row r="2" spans="2:18" thickTop="1" thickBot="1">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="39" thickTop="1" thickBot="1">
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="2:18" ht="39" thickTop="1" thickBot="1">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="2:18" thickTop="1" thickBot="1">
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="2:18" thickTop="1" thickBot="1">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="39" thickTop="1" thickBot="1">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="2:18" ht="39" thickTop="1" thickBot="1">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:18" thickTop="1" thickBot="1">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="2:18" thickTop="1" thickBot="1">
+      <c r="B6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J6" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="91.5" thickTop="1" thickBot="1">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="2:18" ht="91.5" thickTop="1" thickBot="1">
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J7" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="39" thickTop="1" thickBot="1">
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="2:18" ht="39" thickTop="1" thickBot="1">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" thickTop="1" thickBot="1">
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:18" thickTop="1" thickBot="1">
       <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" thickTop="1" thickBot="1">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J10" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q10" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="39" thickTop="1" thickBot="1">
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="2:18" ht="39" thickTop="1" thickBot="1">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" thickTop="1" thickBot="1">
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="M11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:18" thickTop="1" thickBot="1">
       <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="M12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" thickTop="1" thickBot="1">
+      <c r="B13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="E13" s="5"/>
+      <c r="M13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="151.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="2:18" ht="151.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J14" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="55.5" thickTop="1" thickBot="1">
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="2:18" ht="55.5" thickTop="1" thickBot="1">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J15" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="34.5" thickTop="1" thickBot="1">
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="2:18" ht="34.5" thickTop="1" thickBot="1">
+      <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q16" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="33" thickTop="1" thickBot="1">
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="2:10" ht="33" thickTop="1" thickBot="1">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:10" thickTop="1" thickBot="1">
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="2:10" thickTop="1" thickBot="1">
+      <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J18" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1827,10 +1861,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17EBC85-0986-4A2B-A7A7-61AF18C7C10F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="120.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="262.5">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AA0D0B-AA58-48C4-88B3-5EA4DA604E64}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1846,10 +1907,24 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868AAF09-BBCD-4368-A548-7C18BFAD3C4F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4545BBD3-3082-4518-9B67-827817A6FE43}">
   <dimension ref="A1"/>
   <sheetViews>
